--- a/contatos.xlsx
+++ b/contatos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suporte\Documents\GitHub\pedagobot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinamica\Documents\GitHub\pedagobot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859D8F37-951A-4ABA-9071-F3C67601AEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33EA0C14-628E-4283-AA1D-8765CB076AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -357,7 +358,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
